--- a/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B7DC8-8BF1-46F9-A44F-104FA333F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7837FD-7505-4BD3-ABB2-0DD8AD12214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="134">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>Investor 100</t>
+  </si>
+  <si>
+    <t>CF1</t>
+  </si>
+  <si>
+    <t>CF2</t>
+  </si>
+  <si>
+    <t>CF3</t>
   </si>
 </sst>
 </file>
@@ -476,12 +485,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +826,7 @@
     <col min="14" max="14" width="10.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -861,20 +869,29 @@
       <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -912,7 +929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -950,7 +967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1140,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1178,7 +1195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1318,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1353,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1388,7 +1405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>

--- a/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2036B4-4A61-4248-B6AE-2C03727BADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F3C17B-2FC7-4364-B4C6-8904EFF027D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="368" windowWidth="23985" windowHeight="14264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCommitment" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="133">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -141,12 +141,6 @@
   </si>
   <si>
     <t>Pool</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>Series C1</t>
@@ -901,7 +895,7 @@
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -925,13 +919,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -946,43 +940,43 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>13</v>
       </c>
       <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
       <c r="T1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" t="s">
         <v>130</v>
-      </c>
-      <c r="U1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -1012,16 +1006,16 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>44216</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -1051,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>44216</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -1090,16 +1084,16 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>44216</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -1129,21 +1123,21 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>44216</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1168,27 +1162,27 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>44216</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>1000000</v>
@@ -1197,31 +1191,31 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>44216</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1246,21 +1240,21 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>44216</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1285,21 +1279,21 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>44216</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1324,18 +1318,18 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2">
         <v>44216</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1360,18 +1354,18 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2">
         <v>44216</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1396,18 +1390,18 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2">
         <v>44216</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1432,18 +1426,18 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L13" s="2">
         <v>44216</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1468,18 +1462,18 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L14" s="2">
         <v>44216</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1504,18 +1498,18 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L15" s="2">
         <v>44216</v>
       </c>
       <c r="O15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1540,18 +1534,18 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L16" s="2">
         <v>44216</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1576,18 +1570,18 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L17" s="2">
         <v>44216</v>
       </c>
       <c r="O17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1612,18 +1606,18 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L18" s="2">
         <v>44216</v>
       </c>
       <c r="O18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1648,18 +1642,18 @@
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2">
         <v>44216</v>
       </c>
       <c r="O19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1684,18 +1678,18 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L20" s="2">
         <v>44216</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1720,18 +1714,18 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2">
         <v>44216</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1756,18 +1750,18 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L22" s="2">
         <v>44216</v>
       </c>
       <c r="O22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1792,18 +1786,18 @@
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L23" s="2">
         <v>44216</v>
       </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1828,18 +1822,18 @@
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L24" s="2">
         <v>44216</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1864,18 +1858,18 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L25" s="2">
         <v>44216</v>
       </c>
       <c r="O25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1900,18 +1894,18 @@
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L26" s="2">
         <v>44216</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1936,18 +1930,18 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L27" s="2">
         <v>44216</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1972,18 +1966,18 @@
         <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L28" s="2">
         <v>44216</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2008,18 +2002,18 @@
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L29" s="2">
         <v>44216</v>
       </c>
       <c r="O29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2044,18 +2038,18 @@
         <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L30" s="2">
         <v>44216</v>
       </c>
       <c r="O30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2080,18 +2074,18 @@
         <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L31" s="2">
         <v>44216</v>
       </c>
       <c r="O31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -2116,18 +2110,18 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L32" s="2">
         <v>44216</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -2152,18 +2146,18 @@
         <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L33" s="2">
         <v>44216</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -2188,18 +2182,18 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L34" s="2">
         <v>44216</v>
       </c>
       <c r="O34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -2224,18 +2218,18 @@
         <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L35" s="2">
         <v>44216</v>
       </c>
       <c r="O35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -2260,18 +2254,18 @@
         <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L36" s="2">
         <v>44216</v>
       </c>
       <c r="O36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -2296,18 +2290,18 @@
         <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L37" s="2">
         <v>44216</v>
       </c>
       <c r="O37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -2332,18 +2326,18 @@
         <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L38" s="2">
         <v>44216</v>
       </c>
       <c r="O38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -2368,18 +2362,18 @@
         <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L39" s="2">
         <v>44216</v>
       </c>
       <c r="O39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2404,18 +2398,18 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L40" s="2">
         <v>44216</v>
       </c>
       <c r="O40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -2440,18 +2434,18 @@
         <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L41" s="2">
         <v>44216</v>
       </c>
       <c r="O41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -2476,18 +2470,18 @@
         <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L42" s="2">
         <v>44216</v>
       </c>
       <c r="O42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -2512,18 +2506,18 @@
         <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L43" s="2">
         <v>44216</v>
       </c>
       <c r="O43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2548,18 +2542,18 @@
         <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L44" s="2">
         <v>44216</v>
       </c>
       <c r="O44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -2584,18 +2578,18 @@
         <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L45" s="2">
         <v>44216</v>
       </c>
       <c r="O45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -2620,18 +2614,18 @@
         <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L46" s="2">
         <v>44216</v>
       </c>
       <c r="O46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -2656,18 +2650,18 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L47" s="2">
         <v>44216</v>
       </c>
       <c r="O47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
@@ -2692,18 +2686,18 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L48" s="2">
         <v>44216</v>
       </c>
       <c r="O48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -2728,18 +2722,18 @@
         <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L49" s="2">
         <v>44216</v>
       </c>
       <c r="O49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -2764,18 +2758,18 @@
         <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L50" s="2">
         <v>44216</v>
       </c>
       <c r="O50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -2800,18 +2794,18 @@
         <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L51" s="2">
         <v>44216</v>
       </c>
       <c r="O51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -2836,18 +2830,18 @@
         <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L52" s="2">
         <v>44216</v>
       </c>
       <c r="O52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -2872,18 +2866,18 @@
         <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L53" s="2">
         <v>44216</v>
       </c>
       <c r="O53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -2908,18 +2902,18 @@
         <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L54" s="2">
         <v>44216</v>
       </c>
       <c r="O54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -2944,18 +2938,18 @@
         <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L55" s="2">
         <v>44216</v>
       </c>
       <c r="O55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -2980,18 +2974,18 @@
         <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L56" s="2">
         <v>44216</v>
       </c>
       <c r="O56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -3016,18 +3010,18 @@
         <v>12</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L57" s="2">
         <v>44216</v>
       </c>
       <c r="O57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
@@ -3052,18 +3046,18 @@
         <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L58" s="2">
         <v>44216</v>
       </c>
       <c r="O58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -3088,18 +3082,18 @@
         <v>12</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L59" s="2">
         <v>44216</v>
       </c>
       <c r="O59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -3124,18 +3118,18 @@
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L60" s="2">
         <v>44216</v>
       </c>
       <c r="O60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -3160,18 +3154,18 @@
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L61" s="2">
         <v>44216</v>
       </c>
       <c r="O61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
@@ -3196,18 +3190,18 @@
         <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L62" s="2">
         <v>44216</v>
       </c>
       <c r="O62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -3232,18 +3226,18 @@
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L63" s="2">
         <v>44216</v>
       </c>
       <c r="O63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
@@ -3268,18 +3262,18 @@
         <v>12</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L64" s="2">
         <v>44216</v>
       </c>
       <c r="O64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -3304,18 +3298,18 @@
         <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L65" s="2">
         <v>44216</v>
       </c>
       <c r="O65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -3340,18 +3334,18 @@
         <v>12</v>
       </c>
       <c r="J66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L66" s="2">
         <v>44216</v>
       </c>
       <c r="O66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
@@ -3376,18 +3370,18 @@
         <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L67" s="2">
         <v>44216</v>
       </c>
       <c r="O67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -3412,18 +3406,18 @@
         <v>12</v>
       </c>
       <c r="J68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L68" s="2">
         <v>44216</v>
       </c>
       <c r="O68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -3448,18 +3442,18 @@
         <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L69" s="2">
         <v>44216</v>
       </c>
       <c r="O69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
@@ -3484,18 +3478,18 @@
         <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L70" s="2">
         <v>44216</v>
       </c>
       <c r="O70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -3520,18 +3514,18 @@
         <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L71" s="2">
         <v>44216</v>
       </c>
       <c r="O71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -3556,18 +3550,18 @@
         <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L72" s="2">
         <v>44216</v>
       </c>
       <c r="O72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -3592,18 +3586,18 @@
         <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L73" s="2">
         <v>44216</v>
       </c>
       <c r="O73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -3628,18 +3622,18 @@
         <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L74" s="2">
         <v>44216</v>
       </c>
       <c r="O74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -3664,18 +3658,18 @@
         <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L75" s="2">
         <v>44216</v>
       </c>
       <c r="O75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -3700,18 +3694,18 @@
         <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L76" s="2">
         <v>44216</v>
       </c>
       <c r="O76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -3736,18 +3730,18 @@
         <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L77" s="2">
         <v>44216</v>
       </c>
       <c r="O77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -3772,18 +3766,18 @@
         <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L78" s="2">
         <v>44216</v>
       </c>
       <c r="O78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -3808,18 +3802,18 @@
         <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L79" s="2">
         <v>44216</v>
       </c>
       <c r="O79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -3844,18 +3838,18 @@
         <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L80" s="2">
         <v>44216</v>
       </c>
       <c r="O80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -3880,18 +3874,18 @@
         <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L81" s="2">
         <v>44216</v>
       </c>
       <c r="O81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
@@ -3916,18 +3910,18 @@
         <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L82" s="2">
         <v>44216</v>
       </c>
       <c r="O82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
@@ -3952,18 +3946,18 @@
         <v>12</v>
       </c>
       <c r="J83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L83" s="2">
         <v>44216</v>
       </c>
       <c r="O83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -3988,18 +3982,18 @@
         <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L84" s="2">
         <v>44216</v>
       </c>
       <c r="O84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -4024,18 +4018,18 @@
         <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L85" s="2">
         <v>44216</v>
       </c>
       <c r="O85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -4060,18 +4054,18 @@
         <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L86" s="2">
         <v>44216</v>
       </c>
       <c r="O86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
@@ -4096,18 +4090,18 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L87" s="2">
         <v>44216</v>
       </c>
       <c r="O87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
@@ -4132,18 +4126,18 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L88" s="2">
         <v>44216</v>
       </c>
       <c r="O88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
@@ -4168,18 +4162,18 @@
         <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L89" s="2">
         <v>44216</v>
       </c>
       <c r="O89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
@@ -4204,18 +4198,18 @@
         <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L90" s="2">
         <v>44216</v>
       </c>
       <c r="O90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
@@ -4240,18 +4234,18 @@
         <v>12</v>
       </c>
       <c r="J91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L91" s="2">
         <v>44216</v>
       </c>
       <c r="O91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
@@ -4276,18 +4270,18 @@
         <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L92" s="2">
         <v>44216</v>
       </c>
       <c r="O92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
@@ -4312,18 +4306,18 @@
         <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L93" s="2">
         <v>44216</v>
       </c>
       <c r="O93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
@@ -4348,18 +4342,18 @@
         <v>12</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L94" s="2">
         <v>44216</v>
       </c>
       <c r="O94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
@@ -4384,18 +4378,18 @@
         <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L95" s="2">
         <v>44216</v>
       </c>
       <c r="O95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -4420,18 +4414,18 @@
         <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L96" s="2">
         <v>44216</v>
       </c>
       <c r="O96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
@@ -4456,18 +4450,18 @@
         <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L97" s="2">
         <v>44216</v>
       </c>
       <c r="O97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
@@ -4492,18 +4486,18 @@
         <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L98" s="2">
         <v>44216</v>
       </c>
       <c r="O98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -4528,18 +4522,18 @@
         <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L99" s="2">
         <v>44216</v>
       </c>
       <c r="O99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
@@ -4564,18 +4558,18 @@
         <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L100" s="2">
         <v>44216</v>
       </c>
       <c r="O100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
@@ -4600,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="J101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L101" s="2">
         <v>44216</v>
       </c>
       <c r="O101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
